--- a/medicine/Premiers secours et secourisme/Recherche_et_sauvetage_montés/Recherche_et_sauvetage_montés.xlsx
+++ b/medicine/Premiers secours et secourisme/Recherche_et_sauvetage_montés/Recherche_et_sauvetage_montés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Recherche_et_sauvetage_mont%C3%A9s</t>
+          <t>Recherche_et_sauvetage_montés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La recherche et sauvetage montés (mounted search and rescue ou MSAR en anglais) est une unité de recherche et sauvetage à cheval, à ne pas confondre avec une unité de recherche et sauvetage du cheval.
 Une unité de premiers secours équine est une unité de premiers secours mobile se déplaçant à cheval. Grâce aux facilités de déplacement du cheval sur terrains accidentés, un médecin et tout son équipement peuvent être amenés très rapidement, même à travers champs et bois, sur de longues distances, jusqu'au lieu d'un accident.
-Les unités, principalement volontaires, existent aux États-Unis, au Canada, en Australie et en Allemagne[1][source insuffisante].
+Les unités, principalement volontaires, existent aux États-Unis, au Canada, en Australie et en Allemagne[source insuffisante].
 </t>
         </is>
       </c>
